--- a/results/cifar10_training/results_rehearsal_0.1_cifar10.xlsx
+++ b/results/cifar10_training/results_rehearsal_0.1_cifar10.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.302736767423831</v>
+        <v>1.22795605756403</v>
       </c>
       <c r="D3">
-        <v>1.079874873161316</v>
+        <v>0.9163762331008911</v>
       </c>
       <c r="E3">
-        <v>29.21</v>
+        <v>30.84</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.005148405003547668</v>
+        <v>0.004790659320354462</v>
       </c>
       <c r="J3">
-        <v>58.42</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9645166523088284</v>
+        <v>0.9131938146381844</v>
       </c>
       <c r="D4">
-        <v>0.8404873410860697</v>
+        <v>0.8315832614898682</v>
       </c>
       <c r="E4">
-        <v>32.08</v>
+        <v>31.62</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05927023830413818</v>
+        <v>0.05633235530853271</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8347928102423505</v>
+        <v>0.806157623849264</v>
       </c>
       <c r="D5">
-        <v>0.761991560459137</v>
+        <v>0.7199580669403076</v>
       </c>
       <c r="E5">
-        <v>34.45</v>
+        <v>34.33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.004413986361026764</v>
+        <v>0.004474629271030426</v>
       </c>
       <c r="J5">
-        <v>64.16</v>
+        <v>63.24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7625684079115953</v>
+        <v>0.7378489069822358</v>
       </c>
       <c r="D6">
-        <v>0.6872480511665344</v>
+        <v>0.6871182918548584</v>
       </c>
       <c r="E6">
-        <v>35.89</v>
+        <v>36.41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.06521004047393798</v>
+        <v>0.05578117885589599</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6868202347096389</v>
+        <v>0.6526644132970795</v>
       </c>
       <c r="D7">
-        <v>0.7053402264912924</v>
+        <v>0.661731481552124</v>
       </c>
       <c r="E7">
-        <v>37.37</v>
+        <v>36.83</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.003936748492717743</v>
+        <v>0.003861784827709198</v>
       </c>
       <c r="J7">
-        <v>68.90000000000001</v>
+        <v>68.66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6252895768095807</v>
+        <v>0.6012308415843219</v>
       </c>
       <c r="D8">
-        <v>0.6333742539087931</v>
+        <v>0.6548656225204468</v>
       </c>
       <c r="E8">
-        <v>37.04</v>
+        <v>37.82</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06408068122863769</v>
+        <v>0.06799292736053467</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5881757462412361</v>
+        <v>0.5500504442346774</v>
       </c>
       <c r="D9">
-        <v>0.5407002071539561</v>
+        <v>0.599040687084198</v>
       </c>
       <c r="E9">
-        <v>38.64</v>
+        <v>39.05</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.003606253385543823</v>
+        <v>0.003518336951732635</v>
       </c>
       <c r="J9">
-        <v>71.78</v>
+        <v>72.81999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5443951729836503</v>
+        <v>0.4954195715547577</v>
       </c>
       <c r="D10">
-        <v>0.5942360957463583</v>
+        <v>0.5940577983856201</v>
       </c>
       <c r="E10">
-        <v>39.12</v>
+        <v>38.92</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06837967300415039</v>
+        <v>0.067749951171875</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5035261177435154</v>
+        <v>0.4627094503825273</v>
       </c>
       <c r="D11">
-        <v>0.5673601031303406</v>
+        <v>0.5438209772109985</v>
       </c>
       <c r="E11">
-        <v>38.55</v>
+        <v>39.49</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.003349843990802765</v>
+        <v>0.003370134770870209</v>
       </c>
       <c r="J11">
-        <v>74.73999999999999</v>
+        <v>73.66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4750622867084131</v>
+        <v>0.4345214284532438</v>
       </c>
       <c r="D12">
-        <v>0.5632428328196207</v>
+        <v>0.597353458404541</v>
       </c>
       <c r="E12">
-        <v>39.15</v>
+        <v>38.8</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06819596443176269</v>
+        <v>0.07062967433929443</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4402715035570346</v>
+        <v>0.3913989767311065</v>
       </c>
       <c r="D13">
-        <v>0.5287864009539286</v>
+        <v>0.5404908061027527</v>
       </c>
       <c r="E13">
-        <v>39.85</v>
+        <v>39.82</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.003344958412647247</v>
+        <v>0.003221015560626983</v>
       </c>
       <c r="J13">
-        <v>74.08</v>
+        <v>75.64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3970236952711896</v>
+        <v>0.3631848141672165</v>
       </c>
       <c r="D14">
-        <v>0.5226347049077352</v>
+        <v>0.5717828273773193</v>
       </c>
       <c r="E14">
-        <v>39.28</v>
+        <v>39.26</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.07118020935058594</v>
+        <v>0.07137669982910157</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3739705509771176</v>
+        <v>0.3300225740768076</v>
       </c>
       <c r="D15">
-        <v>0.4965819716453552</v>
+        <v>0.5210080146789551</v>
       </c>
       <c r="E15">
-        <v>40.08</v>
+        <v>40.36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.003010165113210678</v>
+        <v>0.002887822920084</v>
       </c>
       <c r="J15">
-        <v>77.28</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.3437474684986642</v>
+        <v>0.2840946210109122</v>
       </c>
       <c r="D16">
-        <v>0.5914570887883505</v>
+        <v>0.5661945343017578</v>
       </c>
       <c r="E16">
-        <v>39.51</v>
+        <v>40.45</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.07292135314941406</v>
+        <v>0.0722106824874878</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3123535094706993</v>
+        <v>0.2474506789348959</v>
       </c>
       <c r="D17">
-        <v>0.5141033530235291</v>
+        <v>0.6357316374778748</v>
       </c>
       <c r="E17">
-        <v>39.44</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.002939928960800171</v>
+        <v>0.002936550366878509</v>
       </c>
       <c r="J17">
-        <v>78.23999999999999</v>
+        <v>77.84</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2714077350569934</v>
+        <v>0.2193643804488143</v>
       </c>
       <c r="D18">
-        <v>0.5304276049137115</v>
+        <v>0.552990198135376</v>
       </c>
       <c r="E18">
-        <v>40.28</v>
+        <v>40.38</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06561681976318359</v>
+        <v>0.07621005516052246</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.2402948340991648</v>
+        <v>0.1896236397750009</v>
       </c>
       <c r="D19">
-        <v>0.4582979381084442</v>
+        <v>0.608576774597168</v>
       </c>
       <c r="E19">
-        <v>40.3</v>
+        <v>40.22</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.003060495692491531</v>
+        <v>0.002770284587144852</v>
       </c>
       <c r="J19">
-        <v>77.09999999999999</v>
+        <v>78.98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2125759050855792</v>
+        <v>0.168785913870102</v>
       </c>
       <c r="D20">
-        <v>0.5639188985029856</v>
+        <v>0.5751960277557373</v>
       </c>
       <c r="E20">
-        <v>40.15</v>
+        <v>40.12</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.06890267581939698</v>
+        <v>0.07445952796936035</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1866209640250943</v>
+        <v>0.2326219299944436</v>
       </c>
       <c r="D21">
-        <v>0.6072699626286825</v>
+        <v>0.5332899689674377</v>
       </c>
       <c r="E21">
-        <v>39.66</v>
+        <v>40.76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.002897201299667358</v>
+        <v>0.003057248419523239</v>
       </c>
       <c r="J21">
-        <v>78.3</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1513127654306288</v>
+        <v>0.210816609423335</v>
       </c>
       <c r="D22">
-        <v>0.5867785414059957</v>
+        <v>0.5357204675674438</v>
       </c>
       <c r="E22">
-        <v>40.4</v>
+        <v>40.79</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.06982056999206543</v>
+        <v>0.07601397609710693</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.127771233276623</v>
+        <v>0.1990585918348979</v>
       </c>
       <c r="D23">
-        <v>0.6478407581647238</v>
+        <v>0.5619755387306213</v>
       </c>
       <c r="E23">
-        <v>40.35</v>
+        <v>40.77</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.002799882787466049</v>
+        <v>0.002762632614374161</v>
       </c>
       <c r="J23">
-        <v>79.7</v>
+        <v>79.64</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.110062526402677</v>
+        <v>0.1863564463650308</v>
       </c>
       <c r="D24">
-        <v>0.6080261866251627</v>
+        <v>0.5272749066352844</v>
       </c>
       <c r="E24">
-        <v>40.31</v>
+        <v>40.7</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.0760474437713623</v>
+        <v>0.07444931659698487</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1581402826842254</v>
+        <v>0.1765284190575282</v>
       </c>
       <c r="D25">
-        <v>0.4844806790351868</v>
+        <v>0.592551052570343</v>
       </c>
       <c r="E25">
-        <v>40.99</v>
+        <v>40.59</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.002928733259439468</v>
+        <v>0.002971277248859405</v>
       </c>
       <c r="J25">
-        <v>78.56</v>
+        <v>78.52</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.138748486231013</v>
+        <v>0.2366805509096239</v>
       </c>
       <c r="D26">
-        <v>0.5264312525590261</v>
+        <v>0.4887987077236176</v>
       </c>
       <c r="E26">
-        <v>41.01</v>
+        <v>40.71</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.08290933647155761</v>
+        <v>0.07699630718231201</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1261912211472911</v>
+        <v>0.2192043036949344</v>
       </c>
       <c r="D27">
-        <v>0.4946324527263641</v>
+        <v>0.5101280212402344</v>
       </c>
       <c r="E27">
-        <v>40.96</v>
+        <v>40.68</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.002757265132665634</v>
+        <v>0.002700645458698273</v>
       </c>
       <c r="J27">
-        <v>80.16</v>
+        <v>80.72</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1186445378433398</v>
+        <v>0.2119093043048207</v>
       </c>
       <c r="D28">
-        <v>0.5184954305489858</v>
+        <v>0.5063807964324951</v>
       </c>
       <c r="E28">
-        <v>40.86</v>
+        <v>40.8</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.08271334762573242</v>
+        <v>0.07732819194793701</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1095060425076058</v>
+        <v>0.2066910586706022</v>
       </c>
       <c r="D29">
-        <v>0.5683940649032593</v>
+        <v>0.5272184610366821</v>
       </c>
       <c r="E29">
-        <v>40.73</v>
+        <v>40.78</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.002949939787387848</v>
+        <v>0.002737968736886978</v>
       </c>
       <c r="J29">
-        <v>79.02</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1620943348218755</v>
+        <v>0.2021581908551658</v>
       </c>
       <c r="D30">
-        <v>0.4646543860435486</v>
+        <v>0.5326191782951355</v>
       </c>
       <c r="E30">
-        <v>40.87</v>
+        <v>40.73</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.08231761856079102</v>
+        <v>0.0815469232559204</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1456590669789934</v>
+        <v>0.1977375384753313</v>
       </c>
       <c r="D31">
-        <v>0.4529810051123301</v>
+        <v>0.4900074601173401</v>
       </c>
       <c r="E31">
-        <v>40.98</v>
+        <v>40.76</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.002901897782087326</v>
+        <v>0.002939218699932098</v>
       </c>
       <c r="J31">
-        <v>78.88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1389705798611408</v>
+        <v>0.2207224875446258</v>
       </c>
       <c r="D32">
-        <v>0.4588132401307424</v>
+        <v>0.4864668846130371</v>
       </c>
       <c r="E32">
-        <v>41.03</v>
+        <v>40.78</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.0841450668334961</v>
+        <v>0.08820211753845215</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1348683911004687</v>
+        <v>0.2184817220379666</v>
       </c>
       <c r="D33">
-        <v>0.4662816027800242</v>
+        <v>0.491975724697113</v>
       </c>
       <c r="E33">
-        <v>41.13</v>
+        <v>40.77</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.002930223083496094</v>
+        <v>0.003024382907152176</v>
       </c>
       <c r="J33">
-        <v>80.56</v>
+        <v>80.76000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1302072887377041</v>
+        <v>0.2158502251878986</v>
       </c>
       <c r="D34">
-        <v>0.5779926081498464</v>
+        <v>0.5250980854034424</v>
       </c>
       <c r="E34">
-        <v>41.05</v>
+        <v>40.72</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.0949091136932373</v>
+        <v>0.08923611145019532</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.1273241207245889</v>
+        <v>0.2139190362720955</v>
       </c>
       <c r="D35">
-        <v>0.5151520172754923</v>
+        <v>0.5370041131973267</v>
       </c>
       <c r="E35">
-        <v>41.03</v>
+        <v>40.78</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.003032244223356247</v>
+        <v>0.003228624933958054</v>
       </c>
       <c r="J35">
-        <v>80.59999999999999</v>
+        <v>80.44</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1241486955706666</v>
+        <v>0.2124176680193684</v>
       </c>
       <c r="D36">
-        <v>0.5281884074211121</v>
+        <v>0.5127511024475098</v>
       </c>
       <c r="E36">
-        <v>41</v>
+        <v>40.76</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.09772729148864746</v>
+        <v>0.101581498336792</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.138957241686379</v>
+        <v>0.2103500910163895</v>
       </c>
       <c r="D37">
-        <v>0.487903247276942</v>
+        <v>0.5086929798126221</v>
       </c>
       <c r="E37">
-        <v>41.02</v>
+        <v>40.84</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.003237729609012604</v>
+        <v>0.003261837059259415</v>
       </c>
       <c r="J37">
-        <v>80.3</v>
+        <v>80.23999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.1373128379748119</v>
+        <v>0.2183325345196375</v>
       </c>
       <c r="D38">
-        <v>0.542976309855779</v>
+        <v>0.5282339453697205</v>
       </c>
       <c r="E38">
-        <v>41.05</v>
+        <v>40.71</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.1043325004577637</v>
+        <v>0.09928541412353516</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.136059051364418</v>
+        <v>0.2178921354253118</v>
       </c>
       <c r="D39">
-        <v>0.5081515610218048</v>
+        <v>0.4925915598869324</v>
       </c>
       <c r="E39">
-        <v>41.08</v>
+        <v>40.73</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.003528820282220841</v>
+        <v>0.002675042831897735</v>
       </c>
       <c r="J39">
-        <v>79.31999999999999</v>
+        <v>81.52</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.1350131828368195</v>
+        <v>0.2175849688246967</v>
       </c>
       <c r="D40">
-        <v>0.4954862793286641</v>
+        <v>0.4989213347434998</v>
       </c>
       <c r="E40">
-        <v>41.07</v>
+        <v>40.74</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.1079790588378906</v>
+        <v>0.09092414398193359</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.1339366007141951</v>
+        <v>0.2166724321318836</v>
       </c>
       <c r="D41">
-        <v>0.5311059057712555</v>
+        <v>0.5039783120155334</v>
       </c>
       <c r="E41">
-        <v>41.09</v>
+        <v>40.71</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.003298317313194275</v>
+        <v>0.002762755107879639</v>
       </c>
       <c r="J41">
-        <v>80.8</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.1388504006029145</v>
+        <v>0.2163183228756354</v>
       </c>
       <c r="D42">
-        <v>0.4856238961219788</v>
+        <v>0.5051214098930359</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>40.71</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,28 +1610,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.1114580108642578</v>
+        <v>0.09723689346313477</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.1383307430196584</v>
-      </c>
-      <c r="D43">
-        <v>0.4573449393113454</v>
-      </c>
-      <c r="E43">
-        <v>41.03</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1639,28 +1624,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.00346834242939949</v>
+        <v>0.002802688097953796</v>
       </c>
       <c r="J43">
-        <v>80.7</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.1379992533020857</v>
-      </c>
-      <c r="D44">
-        <v>0.4838723440965016</v>
-      </c>
-      <c r="E44">
-        <v>41.02</v>
-      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -1668,28 +1638,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.1155823997497559</v>
+        <v>0.10068000831604</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.1374859559099849</v>
-      </c>
-      <c r="D45">
-        <v>0.4862539271513621</v>
-      </c>
-      <c r="E45">
-        <v>40.99</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -1697,28 +1652,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.003610083186626434</v>
+        <v>0.002850437259674072</v>
       </c>
       <c r="J45">
-        <v>80.62</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.1374753514319901</v>
-      </c>
-      <c r="D46">
-        <v>0.4918230672677358</v>
-      </c>
-      <c r="E46">
-        <v>41.01</v>
-      </c>
       <c r="G46">
         <v>2</v>
       </c>
@@ -1726,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.1129457370758057</v>
+        <v>0.09776658096313477</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.002906219351291657</v>
+        <v>0.00289645003080368</v>
       </c>
       <c r="J47">
-        <v>81.98</v>
+        <v>81.18000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1754,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.1047671901702881</v>
+        <v>0.1057079242706299</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1768,10 +1708,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.002934759837388992</v>
+        <v>0.00263553409576416</v>
       </c>
       <c r="J49">
-        <v>82.02</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1782,7 +1722,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.1091663585662842</v>
+        <v>0.08670342750549316</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1796,10 +1736,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.003001044780015946</v>
+        <v>0.002672649359703064</v>
       </c>
       <c r="J51">
-        <v>81.92</v>
+        <v>81.36</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1810,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.1127356441497803</v>
+        <v>0.09102249870300293</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1824,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.003118031883239746</v>
+        <v>0.002683881133794785</v>
       </c>
       <c r="J53">
-        <v>81.72</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1838,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.1165375511169434</v>
+        <v>0.09320941276550293</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1852,10 +1792,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.003247652214765549</v>
+        <v>0.002699104565382004</v>
       </c>
       <c r="J55">
-        <v>81.45999999999999</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1866,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.1215851112365723</v>
+        <v>0.09443260192871093</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1880,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.002869239974021912</v>
+        <v>0.002717507666349411</v>
       </c>
       <c r="J57">
-        <v>81.73999999999999</v>
+        <v>81.45999999999999</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1894,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.1008017116546631</v>
+        <v>0.09604170074462891</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1908,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.002882455039024353</v>
+        <v>0.002737724465131759</v>
       </c>
       <c r="J59">
-        <v>81.95999999999999</v>
+        <v>81.52</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1922,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.1052001918792725</v>
+        <v>0.0979220630645752</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1936,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.002921174311637879</v>
+        <v>0.002645555865764618</v>
       </c>
       <c r="J61">
-        <v>82.06</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1950,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.107626847076416</v>
+        <v>0.0879725513458252</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1964,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.002920761239528656</v>
+        <v>0.002652179998159409</v>
       </c>
       <c r="J63">
-        <v>82.26000000000001</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1978,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.1097649845123291</v>
+        <v>0.08920070304870606</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1992,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.002946843886375427</v>
+        <v>0.002655526340007782</v>
       </c>
       <c r="J65">
-        <v>82.09999999999999</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -2006,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.1112320877075195</v>
+        <v>0.08968369750976563</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2020,10 +1960,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.002950399506092072</v>
+        <v>0.002660129684209824</v>
       </c>
       <c r="J67">
-        <v>82.06</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2034,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.1111040321350098</v>
+        <v>0.09064535026550292</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2048,10 +1988,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.002962705385684967</v>
+        <v>0.00266745730638504</v>
       </c>
       <c r="J69">
-        <v>82</v>
+        <v>81.52</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2062,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.1120829292297363</v>
+        <v>0.09143576774597167</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2076,10 +2016,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.002881576979160309</v>
+        <v>0.002670694702863693</v>
       </c>
       <c r="J71">
-        <v>82.04000000000001</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2090,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.1055381046295166</v>
+        <v>0.09203753967285157</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2104,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.00288428401350975</v>
+        <v>0.002646755284070969</v>
       </c>
       <c r="J73">
-        <v>82.09999999999999</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2118,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.1060476444244385</v>
+        <v>0.08827902526855469</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2132,10 +2072,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.002891360795497894</v>
+        <v>0.00264783405661583</v>
       </c>
       <c r="J75">
-        <v>82.16</v>
+        <v>81.45999999999999</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2146,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.1066633968353271</v>
+        <v>0.08846596412658692</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2160,10 +2100,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.002891951942443848</v>
+        <v>0.002649335736036301</v>
       </c>
       <c r="J77">
-        <v>82.14</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2174,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.1069764991760254</v>
+        <v>0.0887352668762207</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2188,10 +2128,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.002902343344688415</v>
+        <v>0.002650425928831101</v>
       </c>
       <c r="J79">
-        <v>82.18000000000001</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2202,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.1077392284393311</v>
+        <v>0.08897489089965821</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2216,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.002879459065198898</v>
+        <v>0.002651857906579971</v>
       </c>
       <c r="J81">
-        <v>82</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2230,121 +2170,9 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.1051950481414795</v>
+        <v>0.08917710494995117</v>
       </c>
       <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>0.002879717081785202</v>
-      </c>
-      <c r="J83">
-        <v>82.06</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>0.1052848602294922</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.002879400897026062</v>
-      </c>
-      <c r="J85">
-        <v>82.04000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.105267781829834</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>0.002879998636245727</v>
-      </c>
-      <c r="J87">
-        <v>81.98</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>0.1053727481842041</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>0.00288223934173584</v>
-      </c>
-      <c r="J89">
-        <v>82.02</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>0.1055733604431152</v>
-      </c>
-      <c r="J90">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2418,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.957716586854723</v>
+        <v>1.710605369673835</v>
       </c>
       <c r="D3">
-        <v>1.339405099550883</v>
+        <v>0.9956408739089966</v>
       </c>
       <c r="E3">
-        <v>28.87</v>
+        <v>37.73</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2433,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01858862652778626</v>
+        <v>0.01638419089317322</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2447,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.183144208236977</v>
+        <v>0.8920378870434231</v>
       </c>
       <c r="D4">
-        <v>1.084051052729289</v>
+        <v>0.7967550158500671</v>
       </c>
       <c r="E4">
-        <v>35.73</v>
+        <v>42.53</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2462,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.005592400693893432</v>
+        <v>0.003804810261726379</v>
       </c>
       <c r="J4">
-        <v>57.74</v>
+        <v>75.44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2476,13 +2304,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9659677108128866</v>
+        <v>0.7386990388234457</v>
       </c>
       <c r="D5">
-        <v>0.9143277804056803</v>
+        <v>0.6967369914054871</v>
       </c>
       <c r="E5">
-        <v>38.75</v>
+        <v>47.7</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2491,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01656851315498352</v>
+        <v>0.01424342250823975</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2505,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8461142773981447</v>
+        <v>0.645434636981399</v>
       </c>
       <c r="D6">
-        <v>0.8340724110603333</v>
+        <v>0.6730815768241882</v>
       </c>
       <c r="E6">
-        <v>40.42</v>
+        <v>48.97</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2520,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.00443131537437439</v>
+        <v>0.002978742575645447</v>
       </c>
       <c r="J6">
-        <v>71.45999999999999</v>
+        <v>81.52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2534,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.7786801188080399</v>
+        <v>0.571264041573913</v>
       </c>
       <c r="D7">
-        <v>0.7629658579826355</v>
+        <v>0.6302564144134521</v>
       </c>
       <c r="E7">
-        <v>43.15</v>
+        <v>51.76000000000001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2549,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0155260799407959</v>
+        <v>0.01291567969322205</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2563,13 +2391,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7227104602036653</v>
+        <v>0.5148668068426626</v>
       </c>
       <c r="D8">
-        <v>0.7210041085879008</v>
+        <v>0.5906066298484802</v>
       </c>
       <c r="E8">
-        <v>45.44</v>
+        <v>55.71</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2578,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.003473811721801758</v>
+        <v>0.002534390288591385</v>
       </c>
       <c r="J8">
-        <v>77.36</v>
+        <v>84.62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2592,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6769048024106908</v>
+        <v>0.4710440845401199</v>
       </c>
       <c r="D9">
-        <v>0.7104389468828837</v>
+        <v>0.5646414160728455</v>
       </c>
       <c r="E9">
-        <v>46.72</v>
+        <v>58.8</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2607,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01598041110038757</v>
+        <v>0.01358444132804871</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2621,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6403969577065221</v>
+        <v>0.4076603600272426</v>
       </c>
       <c r="D10">
-        <v>0.7073873082796732</v>
+        <v>0.564953088760376</v>
       </c>
       <c r="E10">
-        <v>49.37</v>
+        <v>60.15</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2636,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.00307485020160675</v>
+        <v>0.002310197645425797</v>
       </c>
       <c r="J10">
-        <v>80.3</v>
+        <v>84.81999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2650,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6132188379764557</v>
+        <v>0.3706861530189161</v>
       </c>
       <c r="D11">
-        <v>0.6675374706586202</v>
+        <v>0.6337971687316895</v>
       </c>
       <c r="E11">
-        <v>48.54000000000001</v>
+        <v>56.75</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2665,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01351186175346374</v>
+        <v>0.01197577271461487</v>
       </c>
       <c r="J11">
-        <v>3.98</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2679,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6027888298034668</v>
+        <v>0.3353295687172148</v>
       </c>
       <c r="D12">
-        <v>0.6393348375956217</v>
+        <v>0.6032624244689941</v>
       </c>
       <c r="E12">
-        <v>50.73</v>
+        <v>60.96</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2694,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002843964785337448</v>
+        <v>0.002296723049879074</v>
       </c>
       <c r="J12">
-        <v>82.31999999999999</v>
+        <v>85.06</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2708,13 +2536,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5533349540498521</v>
+        <v>0.2765854544109768</v>
       </c>
       <c r="D13">
-        <v>0.669132133324941</v>
+        <v>0.5619319677352905</v>
       </c>
       <c r="E13">
-        <v>48.34</v>
+        <v>60.59</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2723,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01360746965408325</v>
+        <v>0.0110694739818573</v>
       </c>
       <c r="J13">
-        <v>6.62</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2737,13 +2565,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5366421313197525</v>
+        <v>0.233208500235169</v>
       </c>
       <c r="D14">
-        <v>0.626956840356191</v>
+        <v>0.6071726083755493</v>
       </c>
       <c r="E14">
-        <v>52.98999999999999</v>
+        <v>60.45</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2752,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002583844208717346</v>
+        <v>0.00229910951256752</v>
       </c>
       <c r="J14">
-        <v>84.26000000000001</v>
+        <v>85.04000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2766,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5113994865505783</v>
+        <v>0.2005934570674543</v>
       </c>
       <c r="D15">
-        <v>0.6178576946258545</v>
+        <v>0.585541844367981</v>
       </c>
       <c r="E15">
-        <v>54.34</v>
+        <v>61.11</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2781,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01311219434738159</v>
+        <v>0.01080042910575867</v>
       </c>
       <c r="J15">
-        <v>8.880000000000001</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2795,13 +2623,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4812472639260469</v>
+        <v>0.1634536046120856</v>
       </c>
       <c r="D16">
-        <v>0.5940817793210348</v>
+        <v>0.6721572875976562</v>
       </c>
       <c r="E16">
-        <v>54.1</v>
+        <v>60.56</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2810,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002490807455778122</v>
+        <v>0.00218730081319809</v>
       </c>
       <c r="J16">
-        <v>84.56</v>
+        <v>86.14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2824,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4564484733122366</v>
+        <v>0.129044130941232</v>
       </c>
       <c r="D17">
-        <v>0.6139704684416453</v>
+        <v>0.6186959743499756</v>
       </c>
       <c r="E17">
-        <v>56.8</v>
+        <v>62.42</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2839,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01251433081626892</v>
+        <v>0.01145017123222351</v>
       </c>
       <c r="J17">
-        <v>14.74</v>
+        <v>33.14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2853,13 +2681,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4352576825353834</v>
+        <v>0.09536573177686444</v>
       </c>
       <c r="D18">
-        <v>0.6066939036051432</v>
+        <v>0.7569796442985535</v>
       </c>
       <c r="E18">
-        <v>56.87</v>
+        <v>63.55</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2868,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002578916317224502</v>
+        <v>0.002016687202453613</v>
       </c>
       <c r="J18">
-        <v>84</v>
+        <v>87.16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2882,13 +2710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4135698607674351</v>
+        <v>0.1880054694083002</v>
       </c>
       <c r="D19">
-        <v>0.6117376486460367</v>
+        <v>0.5581508278846741</v>
       </c>
       <c r="E19">
-        <v>55.83</v>
+        <v>62.98</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2897,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01396503534317017</v>
+        <v>0.01209167709350586</v>
       </c>
       <c r="J19">
-        <v>11.82</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2911,13 +2739,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3912890363622595</v>
+        <v>0.168585727888125</v>
       </c>
       <c r="D20">
-        <v>0.6513692537943522</v>
+        <v>0.5426080226898193</v>
       </c>
       <c r="E20">
-        <v>55.07</v>
+        <v>62.5</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2926,10 +2754,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002303551512956619</v>
+        <v>0.00251864669919014</v>
       </c>
       <c r="J20">
-        <v>85.26000000000001</v>
+        <v>84.06</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2940,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3625690147832588</v>
+        <v>0.1545931679231149</v>
       </c>
       <c r="D21">
-        <v>0.6241714755694071</v>
+        <v>0.5644152164459229</v>
       </c>
       <c r="E21">
-        <v>55.9</v>
+        <v>61.93000000000001</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2955,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01187103095054626</v>
+        <v>0.01125310215950012</v>
       </c>
       <c r="J21">
-        <v>15.54</v>
+        <v>37.06</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2969,13 +2797,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4211111839170809</v>
+        <v>0.1442830697805793</v>
       </c>
       <c r="D22">
-        <v>0.5908582409222921</v>
+        <v>0.566760241985321</v>
       </c>
       <c r="E22">
-        <v>56.4</v>
+        <v>63.56</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2984,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.002282985496520996</v>
+        <v>0.002397860372066498</v>
       </c>
       <c r="J22">
-        <v>85.92</v>
+        <v>84.86</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2998,13 +2826,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4095688274613133</v>
+        <v>0.1346050389386989</v>
       </c>
       <c r="D23">
-        <v>0.5848652919133505</v>
+        <v>0.5857188701629639</v>
       </c>
       <c r="E23">
-        <v>55.48</v>
+        <v>62.64</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3013,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01415781917572021</v>
+        <v>0.01157025601863861</v>
       </c>
       <c r="J23">
-        <v>10.86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3027,13 +2855,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4015102060856642</v>
+        <v>0.1248234618593145</v>
       </c>
       <c r="D24">
-        <v>0.5862711270650228</v>
+        <v>0.6015186309814453</v>
       </c>
       <c r="E24">
-        <v>56.98</v>
+        <v>63.16</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3042,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002216969573497772</v>
+        <v>0.002182256239652634</v>
       </c>
       <c r="J24">
-        <v>85.81999999999999</v>
+        <v>86.18000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3056,13 +2884,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.396787377860811</v>
+        <v>0.1150002376072937</v>
       </c>
       <c r="D25">
-        <v>0.5964904427528381</v>
+        <v>0.6053870916366577</v>
       </c>
       <c r="E25">
-        <v>56.74</v>
+        <v>62.67</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3071,10 +2899,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01157960357666016</v>
+        <v>0.01322386474609375</v>
       </c>
       <c r="J25">
-        <v>19.68</v>
+        <v>34.76</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3085,13 +2913,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3912877921704893</v>
+        <v>0.1484611718191041</v>
       </c>
       <c r="D26">
-        <v>0.58171013991038</v>
+        <v>0.5479246377944946</v>
       </c>
       <c r="E26">
-        <v>57.15</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3100,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.002227622699737549</v>
+        <v>0.00230097091794014</v>
       </c>
       <c r="J26">
-        <v>86.3</v>
+        <v>86.14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3114,13 +2942,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3830887068200994</v>
+        <v>0.1446362218371144</v>
       </c>
       <c r="D27">
-        <v>0.589843233426412</v>
+        <v>0.5457009673118591</v>
       </c>
       <c r="E27">
-        <v>56.97</v>
+        <v>63.08</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3129,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01154887757301331</v>
+        <v>0.01266021094322205</v>
       </c>
       <c r="J27">
-        <v>22.76</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3143,13 +2971,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3765033194312343</v>
+        <v>0.1417309924408242</v>
       </c>
       <c r="D28">
-        <v>0.5945298274358114</v>
+        <v>0.5649473071098328</v>
       </c>
       <c r="E28">
-        <v>56.85</v>
+        <v>62.91</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3158,10 +2986,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.00225682578086853</v>
+        <v>0.002230244743824005</v>
       </c>
       <c r="J28">
-        <v>85.92</v>
+        <v>86.72</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3172,13 +3000,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3662212135615172</v>
+        <v>0.1385464179295081</v>
       </c>
       <c r="D29">
-        <v>0.5902519822120667</v>
+        <v>0.5667998790740967</v>
       </c>
       <c r="E29">
-        <v>58.12</v>
+        <v>61.98999999999999</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3187,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01185802111625671</v>
+        <v>0.01433120069503784</v>
       </c>
       <c r="J29">
-        <v>21.48</v>
+        <v>35.04</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3201,13 +3029,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3634024994240867</v>
+        <v>0.1361034302247895</v>
       </c>
       <c r="D30">
-        <v>0.5886755188306173</v>
+        <v>0.5657001733779907</v>
       </c>
       <c r="E30">
-        <v>57.95</v>
+        <v>63.05</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3216,10 +3044,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.002093904328346252</v>
+        <v>0.002494533449411392</v>
       </c>
       <c r="J30">
-        <v>86.72</v>
+        <v>86.08</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3230,13 +3058,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3538180483712091</v>
+        <v>0.1479480026496781</v>
       </c>
       <c r="D31">
-        <v>0.597097635269165</v>
+        <v>0.5441436767578125</v>
       </c>
       <c r="E31">
-        <v>58.37</v>
+        <v>62.75</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3245,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01086787312030792</v>
+        <v>0.01418866367340088</v>
       </c>
       <c r="J31">
-        <v>26.88</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3259,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3725410099382754</v>
+        <v>0.1456809585293134</v>
       </c>
       <c r="D32">
-        <v>0.5812909007072449</v>
+        <v>0.5367435812950134</v>
       </c>
       <c r="E32">
-        <v>57.82</v>
+        <v>62.65</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3274,10 +3102,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.002186644601821899</v>
+        <v>0.002500031507015228</v>
       </c>
       <c r="J32">
-        <v>86.72</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3288,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3705421988610868</v>
+        <v>0.1447795770234532</v>
       </c>
       <c r="D33">
-        <v>0.5845519304275513</v>
+        <v>0.5428645610809326</v>
       </c>
       <c r="E33">
-        <v>57.81</v>
+        <v>62.72</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3303,10 +3131,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01131837816238403</v>
+        <v>0.01405362362861633</v>
       </c>
       <c r="J33">
-        <v>27.02</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3317,13 +3145,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3685691656889739</v>
+        <v>0.1438643956349956</v>
       </c>
       <c r="D34">
-        <v>0.5811852216720581</v>
+        <v>0.5545922517776489</v>
       </c>
       <c r="E34">
-        <v>57.89</v>
+        <v>62.64</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3332,10 +3160,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.002150344729423523</v>
+        <v>0.002909461671113968</v>
       </c>
       <c r="J34">
-        <v>86.72</v>
+        <v>85.26000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3346,13 +3174,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3674271131003344</v>
+        <v>0.1432932343195986</v>
       </c>
       <c r="D35">
-        <v>0.5880553523699442</v>
+        <v>0.5476139783859253</v>
       </c>
       <c r="E35">
-        <v>58.05</v>
+        <v>62.67</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3361,10 +3189,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01203356847763062</v>
+        <v>0.01139596984386444</v>
       </c>
       <c r="J35">
-        <v>24.66</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3375,13 +3203,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3653849565320545</v>
+        <v>0.1422213740922787</v>
       </c>
       <c r="D36">
-        <v>0.5876905719439188</v>
+        <v>0.5552884936332703</v>
       </c>
       <c r="E36">
-        <v>58.1</v>
+        <v>62.75</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3390,10 +3218,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.00206848412156105</v>
+        <v>0.002177363336086273</v>
       </c>
       <c r="J36">
-        <v>87</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3404,13 +3232,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3639749621903455</v>
+        <v>0.141646594968107</v>
       </c>
       <c r="D37">
-        <v>0.5960118373235067</v>
+        <v>0.545124888420105</v>
       </c>
       <c r="E37">
-        <v>58.12</v>
+        <v>63.04</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3419,10 +3247,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01269555053710937</v>
+        <v>0.01223787422180176</v>
       </c>
       <c r="J37">
-        <v>24.74</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3433,13 +3261,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3627413775081988</v>
+        <v>0.1444258746725542</v>
       </c>
       <c r="D38">
-        <v>0.585905392964681</v>
+        <v>0.5435940623283386</v>
       </c>
       <c r="E38">
-        <v>58.41</v>
+        <v>62.68</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3448,10 +3276,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.002223154872655868</v>
+        <v>0.002105347681045532</v>
       </c>
       <c r="J38">
-        <v>85.40000000000001</v>
+        <v>87.73999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3462,13 +3290,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3608101233288094</v>
+        <v>0.1441846353588281</v>
       </c>
       <c r="D39">
-        <v>0.5952232579390208</v>
+        <v>0.5469006896018982</v>
       </c>
       <c r="E39">
-        <v>58.47</v>
+        <v>62.68</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3477,10 +3305,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01283620171546936</v>
+        <v>0.0127452329158783</v>
       </c>
       <c r="J39">
-        <v>24.98</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3491,13 +3319,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.364813729568764</v>
+        <v>0.1439871108090436</v>
       </c>
       <c r="D40">
-        <v>0.5843551357587179</v>
+        <v>0.5458170175552368</v>
       </c>
       <c r="E40">
-        <v>57.91999999999999</v>
+        <v>62.71000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3506,10 +3334,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.00208525105714798</v>
+        <v>0.002126772212982178</v>
       </c>
       <c r="J40">
-        <v>86.81999999999999</v>
+        <v>87.48</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3520,13 +3348,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.3649900604177405</v>
+        <v>0.1438848985014138</v>
       </c>
       <c r="D41">
-        <v>0.586715559164683</v>
+        <v>0.5415992736816406</v>
       </c>
       <c r="E41">
-        <v>57.91</v>
+        <v>62.69</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3535,10 +3363,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01140803241729736</v>
+        <v>0.01222493031024933</v>
       </c>
       <c r="J41">
-        <v>25.48</v>
+        <v>39.88</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3549,13 +3377,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.3646354297796885</v>
+        <v>0.1436330958097069</v>
       </c>
       <c r="D42">
-        <v>0.5812093218167623</v>
+        <v>0.5484532713890076</v>
       </c>
       <c r="E42">
-        <v>57.85</v>
+        <v>62.72</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3564,28 +3392,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.002035135674476623</v>
+        <v>0.002230114096403122</v>
       </c>
       <c r="J42">
-        <v>87.31999999999999</v>
+        <v>87.23999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.363561526382411</v>
-      </c>
-      <c r="D43">
-        <v>0.5883621176083883</v>
-      </c>
-      <c r="E43">
-        <v>58.03</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -3593,28 +3406,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01176716194152832</v>
+        <v>0.01278188362121582</v>
       </c>
       <c r="J43">
-        <v>23.52</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.3636950899053503</v>
-      </c>
-      <c r="D44">
-        <v>0.584460993607839</v>
-      </c>
-      <c r="E44">
-        <v>57.99</v>
-      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3622,28 +3420,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.00200967435836792</v>
+        <v>0.002253023982048035</v>
       </c>
       <c r="J44">
-        <v>87.44</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.3650040244614636</v>
-      </c>
-      <c r="D45">
-        <v>0.5820742646853129</v>
-      </c>
-      <c r="E45">
-        <v>57.94</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -3651,28 +3434,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01113801918029785</v>
+        <v>0.01255733275413513</v>
       </c>
       <c r="J45">
-        <v>27.26</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.364652156829834</v>
-      </c>
-      <c r="D46">
-        <v>0.5791254142920176</v>
-      </c>
-      <c r="E46">
-        <v>57.91999999999999</v>
-      </c>
       <c r="G46">
         <v>2</v>
       </c>
@@ -3680,28 +3448,13 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.002099489837884903</v>
+        <v>0.002354372525215149</v>
       </c>
       <c r="J46">
-        <v>86.7</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.3645325181660829</v>
-      </c>
-      <c r="D47">
-        <v>0.5839153726895651</v>
-      </c>
-      <c r="E47">
-        <v>57.95</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -3709,28 +3462,13 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01172876296043396</v>
+        <v>0.01343048748970032</v>
       </c>
       <c r="J47">
-        <v>26.14</v>
+        <v>38.34</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.3644874645604028</v>
-      </c>
-      <c r="D48">
-        <v>0.5871965189774832</v>
-      </c>
-      <c r="E48">
-        <v>57.98</v>
-      </c>
       <c r="G48">
         <v>2</v>
       </c>
@@ -3738,28 +3476,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.002006635695695877</v>
+        <v>0.00234766788482666</v>
       </c>
       <c r="J48">
-        <v>87.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.3644661809559221</v>
-      </c>
-      <c r="D49">
-        <v>0.5845085978507996</v>
-      </c>
-      <c r="E49">
-        <v>57.98</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>1</v>
       </c>
@@ -3767,28 +3490,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01162031464576721</v>
+        <v>0.01194746966361999</v>
       </c>
       <c r="J49">
-        <v>27.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.3646186478711941</v>
-      </c>
-      <c r="D50">
-        <v>0.5752735733985901</v>
-      </c>
-      <c r="E50">
-        <v>57.94</v>
-      </c>
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>2</v>
       </c>
@@ -3796,28 +3504,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.002044701772928238</v>
+        <v>0.00213383355140686</v>
       </c>
       <c r="J50">
-        <v>87.28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.3644248098134995</v>
-      </c>
-      <c r="D51">
-        <v>0.5822012225786845</v>
-      </c>
-      <c r="E51">
-        <v>58</v>
-      </c>
+        <v>87.52</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>1</v>
       </c>
@@ -3825,28 +3518,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.01158855876922607</v>
+        <v>0.01208859124183655</v>
       </c>
       <c r="J51">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.3641118341022068</v>
-      </c>
-      <c r="D52">
-        <v>0.5824357271194458</v>
-      </c>
-      <c r="E52">
-        <v>57.94</v>
-      </c>
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>2</v>
       </c>
@@ -3854,28 +3532,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001997331160306931</v>
+        <v>0.002139672929048538</v>
       </c>
       <c r="J52">
-        <v>87.40000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.3641429367992613</v>
-      </c>
-      <c r="D53">
-        <v>0.589138905207316</v>
-      </c>
-      <c r="E53">
-        <v>57.98</v>
-      </c>
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>1</v>
       </c>
@@ -3883,28 +3546,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.01197624101638794</v>
+        <v>0.01217755703926086</v>
       </c>
       <c r="J53">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.3638930347230699</v>
-      </c>
-      <c r="D54">
-        <v>0.5842605829238892</v>
-      </c>
-      <c r="E54">
-        <v>57.91</v>
-      </c>
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>2</v>
       </c>
@@ -3912,28 +3560,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001961736053228378</v>
+        <v>0.002154216575622559</v>
       </c>
       <c r="J54">
-        <v>87.76000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.3636358077879305</v>
-      </c>
-      <c r="D55">
-        <v>0.5850921869277954</v>
-      </c>
-      <c r="E55">
-        <v>57.94</v>
-      </c>
+        <v>87.36</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>1</v>
       </c>
@@ -3941,13 +3574,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.01115790741443634</v>
+        <v>0.01276086225509643</v>
       </c>
       <c r="J55">
-        <v>29.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>36.48</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>2</v>
       </c>
@@ -3955,13 +3588,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.002021668320894241</v>
+        <v>0.002116836714744568</v>
       </c>
       <c r="J56">
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>1</v>
       </c>
@@ -3969,13 +3602,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.01149421091079712</v>
+        <v>0.01228904886245728</v>
       </c>
       <c r="J57">
-        <v>28.52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>2</v>
       </c>
@@ -3983,13 +3616,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.00198813591003418</v>
+        <v>0.002174876683950424</v>
       </c>
       <c r="J58">
-        <v>87.38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>1</v>
       </c>
@@ -3997,13 +3630,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01124466128349304</v>
+        <v>0.01200803666114807</v>
       </c>
       <c r="J59">
-        <v>29.48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>2</v>
       </c>
@@ -4011,13 +3644,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.002036825102567673</v>
+        <v>0.002116629964113236</v>
       </c>
       <c r="J60">
-        <v>87.26000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>1</v>
       </c>
@@ -4025,13 +3658,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01114851763248444</v>
+        <v>0.01208817133903503</v>
       </c>
       <c r="J61">
-        <v>28.48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>37.78</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>2</v>
       </c>
@@ -4039,13 +3672,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.002032346713542938</v>
+        <v>0.002111942601203919</v>
       </c>
       <c r="J62">
-        <v>87.16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>87.52</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>1</v>
       </c>
@@ -4053,13 +3686,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01119055111408234</v>
+        <v>0.01207154550552368</v>
       </c>
       <c r="J63">
-        <v>28.36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>2</v>
       </c>
@@ -4067,10 +3700,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.002030772519111633</v>
+        <v>0.002116269394755363</v>
       </c>
       <c r="J64">
-        <v>87.26000000000001</v>
+        <v>87.44</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -4081,10 +3714,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.01125161852836609</v>
+        <v>0.0121566056728363</v>
       </c>
       <c r="J65">
-        <v>28.3</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -4095,10 +3728,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.002017441642284393</v>
+        <v>0.002110747203230858</v>
       </c>
       <c r="J66">
-        <v>87.48</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -4109,10 +3742,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01120553188323975</v>
+        <v>0.01212322220802307</v>
       </c>
       <c r="J67">
-        <v>28.76</v>
+        <v>38.08</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -4123,10 +3756,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.002023005849123001</v>
+        <v>0.002122105705738068</v>
       </c>
       <c r="J68">
-        <v>87.34</v>
+        <v>87.26000000000001</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -4137,10 +3770,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01127277007102966</v>
+        <v>0.01213821377754211</v>
       </c>
       <c r="J69">
-        <v>28.92</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -4151,10 +3784,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.002017206907272339</v>
+        <v>0.002125535535812378</v>
       </c>
       <c r="J70">
-        <v>87.28</v>
+        <v>87.36</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -4165,10 +3798,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01116905329227448</v>
+        <v>0.01206573438644409</v>
       </c>
       <c r="J71">
-        <v>28.94</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -4179,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.002029585522413254</v>
+        <v>0.002137062162160874</v>
       </c>
       <c r="J72">
-        <v>87.3</v>
+        <v>87.44</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -4193,10 +3826,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01104518170356751</v>
+        <v>0.0120891818523407</v>
       </c>
       <c r="J73">
-        <v>29.76</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -4207,10 +3840,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.002043720191717148</v>
+        <v>0.00211163085103035</v>
       </c>
       <c r="J74">
-        <v>87.06</v>
+        <v>87.52</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -4221,10 +3854,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01104983994960785</v>
+        <v>0.01209335045814514</v>
       </c>
       <c r="J75">
-        <v>29.74</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -4235,10 +3868,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.002052847844362259</v>
+        <v>0.002111757642030716</v>
       </c>
       <c r="J76">
-        <v>87.2</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -4249,10 +3882,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01132056994438171</v>
+        <v>0.01209062089920044</v>
       </c>
       <c r="J77">
-        <v>28.24</v>
+        <v>37.88</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -4263,10 +3896,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.002007276064157486</v>
+        <v>0.002113370156288147</v>
       </c>
       <c r="J78">
-        <v>87.59999999999999</v>
+        <v>87.54000000000001</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -4277,10 +3910,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.01133401534557343</v>
+        <v>0.01209210391044617</v>
       </c>
       <c r="J79">
-        <v>28.26</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -4291,10 +3924,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.002007080715894699</v>
+        <v>0.002114356729388237</v>
       </c>
       <c r="J80">
-        <v>87.56</v>
+        <v>87.45999999999999</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4305,10 +3938,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.01128009052276611</v>
+        <v>0.01208337728977203</v>
       </c>
       <c r="J81">
-        <v>28.36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4319,373 +3952,9 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.002012176162004471</v>
+        <v>0.00211584158539772</v>
       </c>
       <c r="J82">
-        <v>87.34</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>0.01125998384952545</v>
-      </c>
-      <c r="J83">
-        <v>28.56</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>0.00201433025598526</v>
-      </c>
-      <c r="J84">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.01131732895374298</v>
-      </c>
-      <c r="J85">
-        <v>28.48</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.002007969331741333</v>
-      </c>
-      <c r="J86">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>0.01127794814109802</v>
-      </c>
-      <c r="J87">
-        <v>28.36</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>0.002011803311109543</v>
-      </c>
-      <c r="J88">
-        <v>87.52</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>0.01128883881568909</v>
-      </c>
-      <c r="J89">
-        <v>28.38</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>0.002009909284114838</v>
-      </c>
-      <c r="J90">
-        <v>87.45999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10">
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
-      <c r="I91">
-        <v>0.01129156160354614</v>
-      </c>
-      <c r="J91">
-        <v>28.42</v>
-      </c>
-    </row>
-    <row r="92" spans="7:10">
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>45</v>
-      </c>
-      <c r="I92">
-        <v>0.002009285545349121</v>
-      </c>
-      <c r="J92">
-        <v>87.48</v>
-      </c>
-    </row>
-    <row r="93" spans="7:10">
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>46</v>
-      </c>
-      <c r="I93">
-        <v>0.01129176955223084</v>
-      </c>
-      <c r="J93">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10">
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>46</v>
-      </c>
-      <c r="I94">
-        <v>0.002009495848417282</v>
-      </c>
-      <c r="J94">
-        <v>87.56</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>0.01129317231178284</v>
-      </c>
-      <c r="J95">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>0.002009043592214585</v>
-      </c>
-      <c r="J96">
-        <v>87.56</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>0.01128530969619751</v>
-      </c>
-      <c r="J97">
-        <v>28.38</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>0.002010115075111389</v>
-      </c>
-      <c r="J98">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>49</v>
-      </c>
-      <c r="I99">
-        <v>0.01127811908721924</v>
-      </c>
-      <c r="J99">
-        <v>28.48</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>49</v>
-      </c>
-      <c r="I100">
-        <v>0.002011132001876831</v>
-      </c>
-      <c r="J100">
-        <v>87.52</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>0.01128435726165771</v>
-      </c>
-      <c r="J101">
-        <v>28.42</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
-      </c>
-      <c r="I102">
-        <v>0.002010448485612869</v>
-      </c>
-      <c r="J102">
-        <v>87.45999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <v>0.01129101910591125</v>
-      </c>
-      <c r="J103">
-        <v>28.42</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>51</v>
-      </c>
-      <c r="I104">
-        <v>0.002010147875547409</v>
-      </c>
-      <c r="J104">
-        <v>87.54000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>0.01128261222839355</v>
-      </c>
-      <c r="J105">
-        <v>28.36</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.002011041942238808</v>
-      </c>
-      <c r="J106">
-        <v>87.45999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>0.01127787022590637</v>
-      </c>
-      <c r="J107">
-        <v>28.44</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.002011613655090332</v>
-      </c>
-      <c r="J108">
         <v>87.44</v>
       </c>
     </row>
